--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_6_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_6_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00286</v>
+        <v>8.080999999999999e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001797</v>
+        <v>3.474e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001898</v>
+        <v>1.741e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001997</v>
+        <v>9.707e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002043</v>
+        <v>5.747e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002071</v>
+        <v>3.638e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00207</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.002103</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.002108</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.00212</v>
+        <v>2.418e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03494</v>
+        <v>1.292e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003727</v>
+        <v>5.596e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001874</v>
+        <v>2.746e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001758</v>
+        <v>1.566e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001723</v>
+        <v>9.057999999999999e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001891</v>
+        <v>5.826e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001918</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001981</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00195</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.002046</v>
+        <v>3.82e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6079</v>
+        <v>6.253e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05628</v>
+        <v>2.808e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01218</v>
+        <v>1.403e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004423</v>
+        <v>7.763e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002478</v>
+        <v>4.64e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001925</v>
+        <v>2.928e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00173</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.001733</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001791</v>
+        <v>1.958e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.203</v>
+        <v>2.065e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3065</v>
+        <v>8.857e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06786</v>
+        <v>4.339e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02195</v>
+        <v>2.488e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009193</v>
+        <v>1.461e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004811</v>
+        <v>9.095e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003022</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.002265</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.001929</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.001793</v>
+        <v>6.101e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.13</v>
+        <v>5.002e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9913</v>
+        <v>2.19e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2231</v>
+        <v>1.074e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07462000000000001</v>
+        <v>6e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0309</v>
+        <v>3.618e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01493</v>
+        <v>2.296e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007998</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.004964</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.00339</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.002566</v>
+        <v>1.479e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.73</v>
+        <v>0.0001032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.445</v>
+        <v>4.509e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5536</v>
+        <v>2.233e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.184</v>
+        <v>1.253e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07885</v>
+        <v>7.408e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03783</v>
+        <v>4.636e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02037</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01178</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.007449</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.005064</v>
+        <v>3.117e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.4</v>
+        <v>0.0001924</v>
       </c>
       <c r="C8" t="n">
-        <v>5.114</v>
+        <v>8.516e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1.181</v>
+        <v>4.179e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4021</v>
+        <v>2.207e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1696</v>
+        <v>1.367e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08203000000000001</v>
+        <v>8.693e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04379</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.02506</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01558</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.01021</v>
+        <v>5.798e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0003286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0001421</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.114e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.927e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.337e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.484e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.848e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0005308999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000224</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001142</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.312000000000001e-05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.771e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.374e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.532e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0007995</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003466</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0001729</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.323e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.708e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.653e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.394e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.001184</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0005114</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000248</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0001406</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.376e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.283e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.559e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0007115999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0003601</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0001997</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0001184</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.554e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.986e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.002279</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0009953</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0004993</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0002741</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001656</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0001035</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.838000000000001e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.003062</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001348</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0006659</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0003725</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0002204</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0001377</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.16e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00406</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.001756</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0008776</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0004843</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0002875</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0001828</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0001219</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002297</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0006291</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0003758</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0002336</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0001557</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.006787</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002907</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001453</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0007965</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0004804</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0002957</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0002014</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.008458</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003651</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001821</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0009958</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0005917</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0003831</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0002486</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01043</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004573</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.002278</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001251</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0007465</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0004689</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.000318</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01282</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.005528</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002764</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001511</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0009174</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0005885</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0003831</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.006714</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.003379</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001844</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001113</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0006998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0004642</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.008191</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.004075</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002238</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001335</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0008549</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0005622</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.009839000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.004848</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002705</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.001578</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.001006</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0006479</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.02666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01147</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.005757</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.003183</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.001881</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001203</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0007975</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.03141</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01356</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00683</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.003703</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.002227</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.001398</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0008939</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.03703</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01585</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.007982</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.002631</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001647</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.04273</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01845</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00928</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.005078</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.003094</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001931</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.001276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02118</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01065</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00583</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00351</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.002201</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.001473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05659</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01228</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.006693</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.004081</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.001711</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.06464</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01406</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.007842999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002826</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001941</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.07346</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03237</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01605</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.005298</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.003368</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.002207</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.08332000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.03659</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01773</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01011</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.005972</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.003835</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002532</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.09543</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.04151</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.02057</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01155</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.006773</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.004297</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.002847</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.04738</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02311</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01279</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.007718</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.004805</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.003225</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05191</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01447</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00848</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.005404</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.003584</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05705</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02914</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01638</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.006025</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.004005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06567000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03243</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01083</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006783</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.004442</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1669</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.07137</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0364</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01983</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01205</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.007518</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.004954</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.08055</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02225</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01319</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.008248999999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.005573</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2043</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.08953999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.04505</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.02441</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01459</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.009207999999999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.006124</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2294</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.09758</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.04881</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02715</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01623</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01026</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.006725</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.05412</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02954</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01733</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01125</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00741</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.06046</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01943</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01228</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.008219000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3031</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1298</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06526999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01362</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.008977000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.07159</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.03939</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01493</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.009906999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1566</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.07758</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.04324</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02552</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.01075</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3923</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1691</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.08461</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.04687</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02804</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01171</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1839</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.09256</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.05107</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03044</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1011</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0554</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03248</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02057</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01371</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5093</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2163</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.06032</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03566</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02269</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01482</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5443</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2327</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.06390999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03863</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01624</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.06976</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.04145</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02666</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01731</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6349</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.07593999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.04524</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02846</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01879</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6889</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2945</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1444</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.08153000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.04914</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03101</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02027</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.7388</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.3155</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.08602</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.05211</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03317</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02179</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>94.18000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.472</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7565</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1565</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.04863</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.02993</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01922</v>
+      <c r="B57" t="n">
+        <v>0.7833</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1666</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.09440999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05608</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03574</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.02228</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05509</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02427</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.006598</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.003933</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.002462</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.001662</v>
       </c>
     </row>
   </sheetData>
